--- a/dist/assets/BOs/Set.xlsx
+++ b/dist/assets/BOs/Set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E19EB9C-EFDE-4ECC-96E3-F922ECDF831C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B1EE11-D82C-4079-B296-A2AA7B2658F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,14 +107,14 @@
 </t>
   </si>
   <si>
-    <t>Set - Age 2 Aggro - Basic Build</t>
-  </si>
-  <si>
     <t>Notes:
 Anubis + Slinger/Priest to prevent opponent from gathering his gold
 Spearmen where needed for anti-cav
 Don't let Vils leave the base
 Killing age 2 Myth unit a priority</t>
+  </si>
+  <si>
+    <t>Age 2 Aggro - Basic Build</t>
   </si>
 </sst>
 </file>
@@ -216,15 +216,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,7 +444,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -456,20 +456,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -528,12 +528,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -556,12 +556,12 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -584,16 +584,16 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="s">
-        <v>24</v>
+      <c r="B15" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>21</v>

--- a/dist/assets/BOs/Set.xlsx
+++ b/dist/assets/BOs/Set.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B1EE11-D82C-4079-B296-A2AA7B2658F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8FE29F-3B0B-4B99-B13A-E6DA7C7AE1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 Killing age 2 Myth unit a priority</t>
   </si>
   <si>
-    <t>Age 2 Aggro - Basic Build</t>
+    <t>OUTDATED - Age 2 Aggro - Basic Build</t>
   </si>
 </sst>
 </file>

--- a/dist/assets/BOs/Set.xlsx
+++ b/dist/assets/BOs/Set.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8FE29F-3B0B-4B99-B13A-E6DA7C7AE1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F0701A-0C64-482F-982F-793041F290A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="3" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="4" r:id="rId1"/>
+    <sheet name="Feuil3" sheetId="5" r:id="rId2"/>
+    <sheet name="Feuil4" sheetId="6" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Archaic</t>
   </si>
@@ -116,12 +119,725 @@
   <si>
     <t>OUTDATED - Age 2 Aggro - Basic Build</t>
   </si>
+  <si>
+    <t>WOLOLO - By Zoltraak</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>2 Wood straggler till 9 Each / 1  Monument + Pharaoh</t>
+  </si>
+  <si>
+    <t>2 Wood Vills Build Granery + Pharaoh Emp / the Monument Vill can hunt already</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 to Food</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>5 to Gold - 1. Mining + Pickaxe 2. House Gold</t>
+  </si>
+  <si>
+    <t>Force Drop when Mining Camp finished to queue Pickaxe ASAP</t>
+  </si>
+  <si>
+    <t>Force Drop Gold For Temple - 2 Gold to Temple</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 5 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>3 to Food</t>
+  </si>
+  <si>
+    <t>Get 1 Priest when  Temple Finishes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>2 to Gold</t>
+  </si>
+  <si>
+    <t>Might End in 3:19 or 3:20 if Food Vills Troll</t>
+  </si>
+  <si>
+    <t>Side Notes</t>
+  </si>
+  <si>
+    <t>Usuall a Priest might get Queued around 3:10</t>
+  </si>
+  <si>
+    <t>This BO Queues Priest at 2:44 / or Hands of Pharaoh</t>
+  </si>
+  <si>
+    <t>Advance - W/E (3:18)</t>
+  </si>
+  <si>
+    <t>Option 1</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>2 Anubite 2 TC</t>
+  </si>
+  <si>
+    <t>2 Anubite Classic Fight</t>
+  </si>
+  <si>
+    <t>Vill Transition</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>2 Food Vills + Pharaoh to Gold</t>
+  </si>
+  <si>
+    <t>Pharaoh Stay Food</t>
+  </si>
+  <si>
+    <t>1 Vill all Houses</t>
+  </si>
+  <si>
+    <t>1 of the Temple Vills can do all Houses</t>
+  </si>
+  <si>
+    <t>1 Gold + House Vill 2. Monument - back to gold/house</t>
+  </si>
+  <si>
+    <t>Classical (4:00)</t>
+  </si>
+  <si>
+    <r>
+      <t>4 / 0 / 1 / 0 / 8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Vills Build TC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 -- Next 2 Vills Gold -- Rally Back to Food</t>
+    </r>
+  </si>
+  <si>
+    <t>Pharaoh Empower 2. TC</t>
+  </si>
+  <si>
+    <t>Force Drop Food - 2 Food Vills Barracks + Pharaoh</t>
+  </si>
+  <si>
+    <t>When 2. TC is done send Vills</t>
+  </si>
+  <si>
+    <t>Get 2. Anubite + Pre Queue Feet of the Jackal (Anubite Upgrade)</t>
+  </si>
+  <si>
+    <t>to Food</t>
+  </si>
+  <si>
+    <t>Disclaimer: (Tested on Non Aggressive Hunt map with Granery - tested on Megalopolis (Aggressive Hunt as well)</t>
+  </si>
+  <si>
+    <t>Disclaimer: Due to getting a Priest early the Monument Timing are a bit Delayed and thus less Favor</t>
+  </si>
+  <si>
+    <t>Option 3</t>
+  </si>
+  <si>
+    <t>Ptah 2 Priests</t>
+  </si>
+  <si>
+    <t>Priest should always try to get Hunt Converted</t>
+  </si>
+  <si>
+    <t>stay in main base as long as possible if you want</t>
+  </si>
+  <si>
+    <t>4 / 4 / 5 / 0</t>
+  </si>
+  <si>
+    <t>Optional: Take 1 Animal from your 2. Hunt - so your</t>
+  </si>
+  <si>
+    <t>2 Food Vills + Pharaoh Gold / 4 Gold Vills Wood</t>
+  </si>
+  <si>
+    <t>Scouting is supported early</t>
+  </si>
+  <si>
+    <t>get 1 Priest after the monument is started</t>
+  </si>
+  <si>
+    <t>Classical (4:18)</t>
+  </si>
+  <si>
+    <t>4 / 4 / 5 / 0 - Rally TC to Food</t>
+  </si>
+  <si>
+    <t>You can Eat the Animals from aging up as well</t>
+  </si>
+  <si>
+    <t>2 Gold Vills + Pharaoh 1 Barack 1 Vill back to gold</t>
+  </si>
+  <si>
+    <t>Hyena is decend in Combat so might keep it</t>
+  </si>
+  <si>
+    <t>Get 2. Anubite + Queue Feet of the Jackal Anubite Up</t>
+  </si>
+  <si>
+    <t>Pharaoh on Food - 2. vill 2. Barracks</t>
+  </si>
+  <si>
+    <t>Get 2. Wadjet - Get Spears - Get 3. Wadjet</t>
+  </si>
+  <si>
+    <t>Side Notes Ptah</t>
+  </si>
+  <si>
+    <t>When Barracks finishes Pharaoh back to Food</t>
+  </si>
+  <si>
+    <t>When 3 Wadjets are out mix in Slingers if needed</t>
+  </si>
+  <si>
+    <t>Every 44 Sec  ~150 Wood and ~8 Favor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Vill Back to Food 2. Vill 2. Barrack</t>
+  </si>
+  <si>
+    <t>Every 44 Sec you get 150 Wood and 8 Favor</t>
+  </si>
+  <si>
+    <t>Means 3 Slingers 1 Wadjet</t>
+  </si>
+  <si>
+    <t>Every 1:30 min</t>
+  </si>
+  <si>
+    <t>Disclaimer: This BO is less efficient then the 3:00 but includes less force droping and might be more beginner friendly - since Set is already putting a lot of presure early on due to Priest + Baboon Micro</t>
+  </si>
+  <si>
+    <t>Archaic - Only Temple Force Drop BO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 to Gold</t>
+  </si>
+  <si>
+    <t>6 / 0 / 1 / 0</t>
+  </si>
+  <si>
+    <t>2 to Food</t>
+  </si>
+  <si>
+    <t>Queue Pickaxe when 6 on Food</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>7 to Gold</t>
+  </si>
+  <si>
+    <t>1. Builds 1 House back to Gold</t>
+  </si>
+  <si>
+    <t>2850 Force Drop Temple with 2 Vills</t>
+  </si>
+  <si>
+    <t>Basic Chill 3:18 - By Zoltraak</t>
+  </si>
+  <si>
+    <t>Archaic - Worst Case 3 Force Drops</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>2 to Gold - 1. Mining + Pickaxe 2. House Gold</t>
+  </si>
+  <si>
+    <t>You will have 44 Food most likely - force drop 1 Vill</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>(Might work out depending on Map)</t>
+  </si>
+  <si>
+    <t>Force Drop when the next Vill finishes or you idle TC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>3 to Gold</t>
+  </si>
+  <si>
+    <t>Somewhere Here Forcedrop at 2850 Gold for Temple - 3 Temple</t>
+  </si>
+  <si>
+    <t>2 Back to Gold / 1 Build 1 House and back to gold</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 to Gold or Food - Depending on Option 1 or 2</t>
+  </si>
+  <si>
+    <t>Pharaoh to Gold (Option 1: 2 TC + 2 Anubite) // Pharaoh stays Food (Option 2 Classical Fight )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Advice: the BO is tight so turn of Auto Queue prio to the last Vill Finishing - so the Force Drop gives you enough Food for the Age UP -- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DONT FORGET TO TURN IT BACK ON</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance - Anubis (3:00)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / 0 / 0 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8 Vills Build TC</t>
+    </r>
+  </si>
+  <si>
+    <t>Disclaimer: The Focus of this BO is the Age up at 3:00 - 4:00 - Generally spoken the Classical fight gets Stronger if you Squeeze in 1+ more Vill befor Aging up</t>
+  </si>
+  <si>
+    <t>Basic  3:00 - By Zoltraak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -129,44 +845,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +968,30 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -195,40 +1002,113 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{0BB22468-4F56-45B9-A2B5-C8D80A0C805A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,22 +1320,1701 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB4AC2E-C5BE-4586-B8FC-0D6566BB7549}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999">
+      <c r="A1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="13.8">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" ht="13.8">
+      <c r="A4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.8">
+      <c r="A5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="13.8">
+      <c r="A6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.8">
+      <c r="A7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.8">
+      <c r="A8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.8">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.8">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.8">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.6">
+      <c r="A12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.8">
+      <c r="A13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.8">
+      <c r="A14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.8">
+      <c r="A15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.8">
+      <c r="A16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.8">
+      <c r="A17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.8">
+      <c r="A18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.8">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.8">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.6">
+      <c r="A21" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.8">
+      <c r="A22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.8">
+      <c r="A23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.8">
+      <c r="A24" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" ht="41.4">
+      <c r="A25" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.8">
+      <c r="A26" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.8">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.8">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.8">
+      <c r="A29" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.8">
+      <c r="A30" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A21:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01AF3A4-F536-46E3-B650-AB008ADF74FC}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999">
+      <c r="A1" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6">
+      <c r="A2" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" ht="13.8">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" spans="1:10" ht="13.8">
+      <c r="A4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.8">
+      <c r="A5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:10" ht="13.8">
+      <c r="A6" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.8">
+      <c r="A7" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.8">
+      <c r="A8" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.8">
+      <c r="A9" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.8">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.8">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.6">
+      <c r="A12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.8">
+      <c r="A13" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.8">
+      <c r="A14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.8">
+      <c r="A15" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.8">
+      <c r="A16" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.8">
+      <c r="A17" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.8">
+      <c r="A18" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.8">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.8">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6">
+      <c r="A21" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="1:8" ht="13.8">
+      <c r="A22" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.8">
+      <c r="A23" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" ht="13.8">
+      <c r="A24" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="1:8" ht="41.4">
+      <c r="A25" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.8">
+      <c r="A26" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.8">
+      <c r="A27" s="28"/>
+      <c r="B27" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" ht="13.8">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.8">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.8">
+      <c r="A30" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8923A73A-8514-4A7D-89AE-03BBD6408AF4}">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.399999999999999">
+      <c r="A1" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="41"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6">
+      <c r="A2" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="41"/>
+    </row>
+    <row r="3" spans="1:11" ht="13.8">
+      <c r="A3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="41"/>
+    </row>
+    <row r="4" spans="1:11" ht="13.8">
+      <c r="A4" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="41"/>
+    </row>
+    <row r="5" spans="1:11" ht="13.8">
+      <c r="A5" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="41"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.8">
+      <c r="A6" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="13.8">
+      <c r="A7" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="41"/>
+    </row>
+    <row r="8" spans="1:11" ht="13.8">
+      <c r="A8" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="41"/>
+    </row>
+    <row r="9" spans="1:11" ht="13.8">
+      <c r="A9" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="41"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.8">
+      <c r="A10" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="41"/>
+    </row>
+    <row r="11" spans="1:11" ht="13.8">
+      <c r="A11" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="41"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6">
+      <c r="A12" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="41"/>
+    </row>
+    <row r="13" spans="1:11" ht="13.8">
+      <c r="A13" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="41"/>
+    </row>
+    <row r="14" spans="1:11" ht="13.8">
+      <c r="A14" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="41"/>
+    </row>
+    <row r="15" spans="1:11" ht="13.8">
+      <c r="A15" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="41"/>
+    </row>
+    <row r="16" spans="1:11" ht="13.8">
+      <c r="A16" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="41"/>
+    </row>
+    <row r="17" spans="1:11" ht="13.8">
+      <c r="A17" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="41"/>
+    </row>
+    <row r="18" spans="1:11" ht="13.8">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="1:11" ht="13.8">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="1:11" ht="13.8">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="41"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6">
+      <c r="A21" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="41"/>
+    </row>
+    <row r="22" spans="1:11" ht="13.8">
+      <c r="A22" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="41"/>
+    </row>
+    <row r="23" spans="1:11" ht="13.8">
+      <c r="A23" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="41"/>
+    </row>
+    <row r="24" spans="1:11" ht="13.8">
+      <c r="A24" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="41"/>
+    </row>
+    <row r="25" spans="1:11" ht="13.8">
+      <c r="A25" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="41"/>
+    </row>
+    <row r="26" spans="1:11" ht="13.8">
+      <c r="A26" s="39"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="41"/>
+    </row>
+    <row r="27" spans="1:11" ht="13.8">
+      <c r="A27" s="39"/>
+      <c r="B27" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="41"/>
+    </row>
+    <row r="28" spans="1:11" ht="13.8">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="41"/>
+    </row>
+    <row r="29" spans="1:11" ht="13.8">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="41"/>
+    </row>
+    <row r="30" spans="1:11" ht="13.8">
+      <c r="A30" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="41"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="38"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="41"/>
+    </row>
+    <row r="32" spans="1:11" ht="15">
+      <c r="A32" s="37"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="41"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="41"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="38"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="41"/>
+    </row>
+    <row r="35" spans="1:11" ht="15">
+      <c r="A35" s="37"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="41"/>
+    </row>
+    <row r="36" spans="1:11" ht="15">
+      <c r="A36" s="37"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="41"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="38"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="41"/>
+    </row>
+    <row r="38" spans="1:11" ht="15">
+      <c r="A38" s="37"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A21:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96460505-D879-42E7-8CB0-31E9EF811282}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="65" customWidth="1"/>
-    <col min="2" max="2" width="62.140625" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
     <col min="3" max="3" width="131" customWidth="1"/>
-    <col min="4" max="4" width="81.85546875" customWidth="1"/>
+    <col min="4" max="4" width="81.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
@@ -463,7 +3022,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -471,7 +3030,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -479,7 +3038,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -491,7 +3050,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -503,7 +3062,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -515,7 +3074,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -527,7 +3086,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6">
       <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
@@ -535,7 +3094,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -543,7 +3102,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -555,7 +3114,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -563,7 +3122,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -571,7 +3130,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="93.6">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -583,7 +3142,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6">
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
@@ -591,7 +3150,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="66">
       <c r="B15" s="9" t="s">
         <v>23</v>
       </c>

--- a/dist/assets/BOs/Set.xlsx
+++ b/dist/assets/BOs/Set.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F0701A-0C64-482F-982F-793041F290A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92B1300-794C-4556-8EEE-DFEB7E09F28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="4" r:id="rId1"/>
     <sheet name="Feuil3" sheetId="5" r:id="rId2"/>
-    <sheet name="Feuil4" sheetId="6" r:id="rId3"/>
-    <sheet name="Feuil1" sheetId="3" r:id="rId4"/>
+    <sheet name="Feuil5" sheetId="7" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="6" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="146">
   <si>
     <t>Archaic</t>
   </si>
@@ -120,9 +121,6 @@
     <t>OUTDATED - Age 2 Aggro - Basic Build</t>
   </si>
   <si>
-    <t>WOLOLO - By Zoltraak</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">0 / </t>
     </r>
@@ -831,13 +829,197 @@
   </si>
   <si>
     <t>Basic  3:00 - By Zoltraak</t>
+  </si>
+  <si>
+    <t>WOLOLO 3:18 Advance time - By Zoltraak</t>
+  </si>
+  <si>
+    <r>
+      <t>0/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/0/0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial vills: 2 to wood, 3rd vil goes with Pharaoh to built Dock and then go wood. Pharaoh empowers wood.</t>
+  </si>
+  <si>
+    <t>Auto-queue fishing ship
+Scout with priest
+Chop wood close to water</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/3/0/0</t>
+    </r>
+  </si>
+  <si>
+    <t>3 to Food (hunt). You will need 2 boars to age up</t>
+  </si>
+  <si>
+    <t>Pharaoh still on wood</t>
+  </si>
+  <si>
+    <r>
+      <t>3/3/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/0</t>
+    </r>
+  </si>
+  <si>
+    <t>4 to Gold</t>
+  </si>
+  <si>
+    <t>After 4th vil to gold, move Pharaoh to food (tc)
+1 villager from wood builds a house</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/3/4/0</t>
+    </r>
+  </si>
+  <si>
+    <t>4 more vils to food (last one if needed)</t>
+  </si>
+  <si>
+    <t>When there is 2849 or less gold in goldmine, build temple with 3 vils from gold (about 2:45)
+Stop making fishing ships when you have 9.
+Advance with Anubis (3:20)
+If low on food train 1 more villager and age 3:40</t>
+  </si>
+  <si>
+    <t>Advance - Anubis (3.20)</t>
+  </si>
+  <si>
+    <t>0/7/6/1</t>
+  </si>
+  <si>
+    <t>Need 6 villagers on gold
+You have 9 fishing ships
+Rest to wood except for the villagers building dock/monument</t>
+  </si>
+  <si>
+    <t>Send 1 villager to build a 2nd dock when clicking age up. Then use it to build houses.
+When having 50g (10 seconds later) send a 2nd villager to build a 2nd dock. Then move it back to wood.
+When having 50g use 1 villager from gold to build a monument. Then move it back to gold
+Dont train more fishing ships, stay at 9.</t>
+  </si>
+  <si>
+    <t>Classical (4:20)</t>
+  </si>
+  <si>
+    <t>Reach classical with 3 docks. Start building war ships from them</t>
+  </si>
+  <si>
+    <r>
+      <t>0/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/6/1</t>
+    </r>
+  </si>
+  <si>
+    <t>3 vils to wood</t>
+  </si>
+  <si>
+    <t>Keep training war boats. Use snakes on water if needed to win it.</t>
+  </si>
+  <si>
+    <t>Water - Medit BO - By BacHi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -948,8 +1130,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -992,6 +1223,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1006,7 +1249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1027,13 +1270,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1041,9 +1277,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1057,6 +1290,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1064,46 +1305,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1327,473 +1562,473 @@
       <selection sqref="A1:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="24" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.6">
+      <c r="E1" s="14"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" ht="13.8">
-      <c r="A3" s="15" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.25">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" ht="13.8">
-      <c r="A4" s="14" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.8">
-      <c r="A5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" ht="13.8">
-      <c r="A6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.8">
-      <c r="A7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.8">
-      <c r="A8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.8">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="20" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.8">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="20" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="13.8">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="20" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75">
+      <c r="A12" s="25" t="s">
         <v>43</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="25" t="s">
-        <v>44</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" ht="13.8">
-      <c r="A13" s="14" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.25">
+      <c r="A13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.25">
+      <c r="A14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.8">
-      <c r="A14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25">
+      <c r="A15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.8">
-      <c r="A15" s="14" t="s">
+      <c r="B15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.8">
-      <c r="A16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.25">
+      <c r="A17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.8">
-      <c r="A17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.25">
+      <c r="A18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.8">
-      <c r="A18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.8">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75">
+      <c r="A21" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.8">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.6">
-      <c r="A21" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.8">
-      <c r="A22" s="14" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.25">
+      <c r="A22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.8">
-      <c r="A23" s="14" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="15">
+      <c r="A23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.25">
+      <c r="A24" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" ht="13.8">
-      <c r="A24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" ht="42.75">
+      <c r="A25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" ht="41.4">
-      <c r="A25" s="21" t="s">
+      <c r="B25" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.25">
+      <c r="A26" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" ht="13.8">
-      <c r="A26" s="21" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" ht="14.25">
+      <c r="A29" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.8">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:10" ht="13.8">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" ht="13.8">
-      <c r="A29" s="14" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.25">
+      <c r="A30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="1:10" ht="13.8">
-      <c r="A30" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1810,497 +2045,497 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01AF3A4-F536-46E3-B650-AB008ADF74FC}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.6">
+      <c r="E1" s="10"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-    </row>
-    <row r="3" spans="1:10" ht="13.8">
-      <c r="A3" s="29" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.25">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="1:10" ht="13.8">
-      <c r="A4" s="28" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.8">
-      <c r="A5" s="28" t="s">
+      <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="1:10" ht="13.8">
-      <c r="A6" s="28" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.25">
+      <c r="A7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.8">
-      <c r="A7" s="28" t="s">
+      <c r="B7" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="C7" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.8">
-      <c r="A8" s="28" t="s">
+      <c r="B8" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="C8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="D8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.8">
-      <c r="A9" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.8">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-    </row>
-    <row r="11" spans="1:10" ht="13.8">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6">
+      <c r="E8" s="10"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-    </row>
-    <row r="13" spans="1:10" ht="13.8">
-      <c r="A13" s="28" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.25">
+      <c r="A13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="C13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.25">
+      <c r="A14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="B14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.8">
-      <c r="A14" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="28" t="s">
+      <c r="D14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25">
+      <c r="A15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="33" t="s">
+      <c r="B15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.8">
-      <c r="A15" s="28" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="33" t="s">
+      <c r="B16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.8">
-      <c r="A16" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="28" t="s">
+      <c r="D16" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.25">
+      <c r="A17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="33" t="s">
+      <c r="B17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.8">
-      <c r="A17" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="28" t="s">
+      <c r="D17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.25">
+      <c r="A18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="33" t="s">
+      <c r="B18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.8">
-      <c r="A18" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.8">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="1:8" ht="13.8">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75">
+      <c r="A21" s="25" t="s">
         <v>75</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.6">
-      <c r="A21" s="25" t="s">
-        <v>76</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-    </row>
-    <row r="22" spans="1:8" ht="13.8">
-      <c r="A22" s="28" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.25">
+      <c r="A22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" ht="13.8">
-      <c r="A23" s="28" t="s">
+      <c r="C22" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" ht="15">
+      <c r="A23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="C23" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.25">
+      <c r="A24" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="33" t="s">
+      <c r="B24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="1:8" ht="13.8">
-      <c r="A24" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="32" t="s">
+      <c r="D24" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" ht="42.75">
+      <c r="A25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="33" t="s">
+      <c r="B25" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="1:8" ht="41.4">
-      <c r="A25" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="32" t="s">
+      <c r="C25" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" ht="14.25">
+      <c r="A26" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="1:8" ht="13.8">
-      <c r="A26" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="28" t="s">
+      <c r="D26" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" ht="13.8">
-      <c r="A27" s="28"/>
-      <c r="B27" s="32" t="s">
+      <c r="C27" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="D27" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="1:8" ht="13.8">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28" t="s">
+      <c r="C28" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="D28" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="27"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.8">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="33" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.25">
+      <c r="A30" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="1:8" ht="13.8">
-      <c r="A30" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2314,6 +2549,171 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F93CDC9-EFC7-42DE-9C7E-5F818883B7AB}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5">
+      <c r="A1" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.25">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5">
+      <c r="A3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="1:4" ht="89.25">
+      <c r="A4" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="114.75">
+      <c r="A6" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="293.25">
+      <c r="A7" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5">
+      <c r="A9" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+    </row>
+    <row r="10" spans="1:4" ht="409.5">
+      <c r="A10" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5">
+      <c r="A11" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="31"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8923A73A-8514-4A7D-89AE-03BBD6408AF4}">
   <dimension ref="A1:K42"/>
   <sheetViews>
@@ -2321,671 +2721,671 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.399999999999999">
+    <row r="1" spans="1:11" ht="18">
       <c r="A1" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="41"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.6">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="41"/>
-    </row>
-    <row r="3" spans="1:11" ht="13.8">
-      <c r="A3" s="40" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.25">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="1:11" ht="13.8">
-      <c r="A4" s="39" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" ht="15">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" ht="15">
+      <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="41"/>
-    </row>
-    <row r="5" spans="1:11" ht="13.8">
-      <c r="A5" s="39" t="s">
+      <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="41"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8">
-      <c r="A6" s="39" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" ht="15">
+      <c r="A6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="C6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="44" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="15">
+      <c r="A7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="41"/>
-    </row>
-    <row r="7" spans="1:11" ht="13.8">
-      <c r="A7" s="39" t="s">
+      <c r="B7" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="43" t="s">
+      <c r="D7" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="15">
+      <c r="A8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="41"/>
-    </row>
-    <row r="8" spans="1:11" ht="13.8">
-      <c r="A8" s="39" t="s">
+      <c r="B8" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="D8" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" ht="15">
+      <c r="A9" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="41"/>
-    </row>
-    <row r="9" spans="1:11" ht="13.8">
-      <c r="A9" s="39" t="s">
+      <c r="B9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="15">
+      <c r="A10" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="41"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8">
-      <c r="A10" s="39" t="s">
+      <c r="B10" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="C10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" ht="15">
+      <c r="A11" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="41"/>
-    </row>
-    <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="39" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="A12" s="25" t="s">
         <v>119</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="41"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.6">
-      <c r="A12" s="25" t="s">
-        <v>120</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="41"/>
-    </row>
-    <row r="13" spans="1:11" ht="13.8">
-      <c r="A13" s="39" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.25">
+      <c r="A13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.25">
+      <c r="A14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="41"/>
-    </row>
-    <row r="14" spans="1:11" ht="13.8">
-      <c r="A14" s="39" t="s">
+      <c r="B14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.25">
+      <c r="A15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="46" t="s">
+      <c r="B15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="41"/>
-    </row>
-    <row r="15" spans="1:11" ht="13.8">
-      <c r="A15" s="39" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" ht="15">
+      <c r="A16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="41"/>
-    </row>
-    <row r="16" spans="1:11" ht="13.8">
-      <c r="A16" s="39" t="s">
+      <c r="B16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.25">
+      <c r="A17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="41"/>
-    </row>
-    <row r="17" spans="1:11" ht="13.8">
-      <c r="A17" s="39" t="s">
+      <c r="B17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="41"/>
-    </row>
-    <row r="18" spans="1:11" ht="13.8">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="41"/>
-    </row>
-    <row r="19" spans="1:11" ht="13.8">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="41"/>
-    </row>
-    <row r="20" spans="1:11" ht="13.8">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="41"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.6">
-      <c r="A21" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="41"/>
-    </row>
-    <row r="22" spans="1:11" ht="13.8">
-      <c r="A22" s="39" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.25">
+      <c r="A22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="41"/>
-    </row>
-    <row r="23" spans="1:11" ht="13.8">
-      <c r="A23" s="39" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" ht="15">
+      <c r="A23" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.25">
+      <c r="A24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" ht="14.25">
+      <c r="A25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" ht="14.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" ht="14.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" ht="14.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" ht="14.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" ht="14.25">
+      <c r="A30" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="41"/>
-    </row>
-    <row r="24" spans="1:11" ht="13.8">
-      <c r="A24" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="41"/>
-    </row>
-    <row r="25" spans="1:11" ht="13.8">
-      <c r="A25" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="41"/>
-    </row>
-    <row r="26" spans="1:11" ht="13.8">
-      <c r="A26" s="39"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="41"/>
-    </row>
-    <row r="27" spans="1:11" ht="13.8">
-      <c r="A27" s="39"/>
-      <c r="B27" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="41"/>
-    </row>
-    <row r="28" spans="1:11" ht="13.8">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="41"/>
-    </row>
-    <row r="29" spans="1:11" ht="13.8">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="41"/>
-    </row>
-    <row r="30" spans="1:11" ht="13.8">
-      <c r="A30" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="41"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="38"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="41"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" ht="15">
-      <c r="A32" s="37"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="41"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="41"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="38"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="41"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11" ht="15">
-      <c r="A35" s="37"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="41"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11" ht="15">
-      <c r="A36" s="37"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="41"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="38"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="41"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11" ht="15">
-      <c r="A38" s="37"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2998,7 +3398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96460505-D879-42E7-8CB0-31E9EF811282}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -3006,29 +3406,29 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="65" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" customWidth="1"/>
     <col min="3" max="3" width="131" customWidth="1"/>
-    <col min="4" max="4" width="81.88671875" customWidth="1"/>
+    <col min="4" max="4" width="81.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1" t="s">
@@ -3086,13 +3486,13 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
@@ -3114,13 +3514,13 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="1" t="s">
@@ -3130,7 +3530,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="93.6">
+    <row r="13" spans="1:4" ht="90">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -3142,15 +3542,15 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" ht="66">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:4" ht="63.75">
       <c r="B15" s="9" t="s">
         <v>23</v>
       </c>

--- a/dist/assets/BOs/Set.xlsx
+++ b/dist/assets/BOs/Set.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92B1300-794C-4556-8EEE-DFEB7E09F28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6DCCEA-BFD6-4051-9299-09135DF8F48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="4" r:id="rId1"/>
     <sheet name="Feuil3" sheetId="5" r:id="rId2"/>
     <sheet name="Feuil5" sheetId="7" r:id="rId3"/>
-    <sheet name="Feuil4" sheetId="6" r:id="rId4"/>
-    <sheet name="Feuil1" sheetId="3" r:id="rId5"/>
+    <sheet name="Feuil6" sheetId="8" r:id="rId4"/>
+    <sheet name="Feuil4" sheetId="6" r:id="rId5"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="177">
   <si>
     <t>Archaic</t>
   </si>
@@ -1014,16 +1015,210 @@
   <si>
     <t>Water - Medit BO - By BacHi</t>
   </si>
+  <si>
+    <t>queue Pickaxe ASAP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 5 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>FH Heroic</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 5 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Food </t>
+  </si>
+  <si>
+    <t>2 Gold Vills Build Armory Immediately - back to gold</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>2 Gold</t>
+  </si>
+  <si>
+    <t>Send 3 Gazells of Set from age up to get eaten</t>
+  </si>
+  <si>
+    <t>Advance Sekhmet (5:12)</t>
+  </si>
+  <si>
+    <t>Chariot Opening</t>
+  </si>
+  <si>
+    <t>Camels Opening</t>
+  </si>
+  <si>
+    <t>1 / 7 / 8 / 0</t>
+  </si>
+  <si>
+    <t>6 / 0 / 10 / 0</t>
+  </si>
+  <si>
+    <t>1 Gold Vill Houses Handaxe</t>
+  </si>
+  <si>
+    <t>1 Food Vill Houses</t>
+  </si>
+  <si>
+    <t>Heroic (6:27)</t>
+  </si>
+  <si>
+    <t>Rally TC Food</t>
+  </si>
+  <si>
+    <t>Rally TC 3 Gold -- after that w/e needed (wood for eco ups?)</t>
+  </si>
+  <si>
+    <t>8 Gold Vills + pharaoh Migdol on 2. Gold</t>
+  </si>
+  <si>
+    <t>7 Gold Vills + pharaoh Migdol on 2. Gold - keep 3 on gold</t>
+  </si>
+  <si>
+    <t>Crocodile is decend in Combat so might keep it</t>
+  </si>
+  <si>
+    <t>2. Monument near Migdol</t>
+  </si>
+  <si>
+    <t>Empower 3-4 Chariot Archers</t>
+  </si>
+  <si>
+    <t>Empower first few Camels - switch to gold after or stay on migdol</t>
+  </si>
+  <si>
+    <t>Empower GM after first CA</t>
+  </si>
+  <si>
+    <t>Start getting Armory Ups Weapons first</t>
+  </si>
+  <si>
+    <t>when Flooding Res get Balistics + Bone Bow</t>
+  </si>
+  <si>
+    <t>send some Vills Wood - get eco techs</t>
+  </si>
+  <si>
+    <t>FH  6:27 - By Zoltraak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1179,6 +1374,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1247,97 +1449,108 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1562,15 +1775,15 @@
       <selection sqref="A1:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10" ht="17.399999999999999">
+      <c r="A1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="14"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -1578,13 +1791,13 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:10" ht="15.6">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="14"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -1592,7 +1805,7 @@
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" ht="14.25">
+    <row r="3" spans="1:10" ht="13.8">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -1606,7 +1819,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10" ht="13.8">
       <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
@@ -1624,7 +1837,7 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row r="5" spans="1:10" ht="13.8">
       <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
@@ -1640,7 +1853,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10" ht="13.8">
       <c r="A6" s="11" t="s">
         <v>30</v>
       </c>
@@ -1660,7 +1873,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10" ht="13.8">
       <c r="A7" s="11" t="s">
         <v>34</v>
       </c>
@@ -1678,7 +1891,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10" ht="13.8">
       <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
@@ -1696,7 +1909,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" ht="14.25">
+    <row r="9" spans="1:10" ht="13.8">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1710,7 +1923,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="14.25">
+    <row r="10" spans="1:10" ht="13.8">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1724,7 +1937,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" ht="14.25">
+    <row r="11" spans="1:10" ht="13.8">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1738,13 +1951,13 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:10" ht="15.6">
+      <c r="A12" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="14"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -1752,7 +1965,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25">
+    <row r="13" spans="1:10" ht="13.8">
       <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
@@ -1768,7 +1981,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25">
+    <row r="14" spans="1:10" ht="13.8">
       <c r="A14" s="11" t="s">
         <v>46</v>
       </c>
@@ -1784,7 +1997,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" ht="14.25">
+    <row r="15" spans="1:10" ht="13.8">
       <c r="A15" s="11" t="s">
         <v>48</v>
       </c>
@@ -1800,7 +2013,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" ht="13.8">
       <c r="A16" s="11" t="s">
         <v>49</v>
       </c>
@@ -1816,7 +2029,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" ht="14.25">
+    <row r="17" spans="1:10" ht="13.8">
       <c r="A17" s="11" t="s">
         <v>51</v>
       </c>
@@ -1832,7 +2045,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="1:10" ht="14.25">
+    <row r="18" spans="1:10" ht="13.8">
       <c r="A18" s="11" t="s">
         <v>53</v>
       </c>
@@ -1848,7 +2061,7 @@
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="1:10" ht="14.25">
+    <row r="19" spans="1:10" ht="13.8">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
         <v>55</v>
@@ -1862,7 +2075,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:10" ht="14.25">
+    <row r="20" spans="1:10" ht="13.8">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1874,13 +2087,13 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:10" ht="15.6">
+      <c r="A21" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -1888,7 +2101,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:10" ht="14.25">
+    <row r="22" spans="1:10" ht="13.8">
       <c r="A22" s="11" t="s">
         <v>44</v>
       </c>
@@ -1904,7 +2117,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:10" ht="15">
+    <row r="23" spans="1:10" ht="13.8">
       <c r="A23" s="11" t="s">
         <v>57</v>
       </c>
@@ -1920,7 +2133,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" ht="14.25">
+    <row r="24" spans="1:10" ht="13.8">
       <c r="A24" s="11" t="s">
         <v>59</v>
       </c>
@@ -1936,7 +2149,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" ht="42.75">
+    <row r="25" spans="1:10" ht="41.4">
       <c r="A25" s="17" t="s">
         <v>61</v>
       </c>
@@ -1952,7 +2165,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" ht="14.25">
+    <row r="26" spans="1:10" ht="13.8">
       <c r="A26" s="17" t="s">
         <v>63</v>
       </c>
@@ -1966,7 +2179,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="1:10" ht="14.25">
+    <row r="27" spans="1:10" ht="13.8">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="18"/>
@@ -1978,7 +2191,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="1:10" ht="14.25">
+    <row r="28" spans="1:10" ht="13.8">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1990,7 +2203,7 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="1:10" ht="14.25">
+    <row r="29" spans="1:10" ht="13.8">
       <c r="A29" s="11" t="s">
         <v>64</v>
       </c>
@@ -2004,7 +2217,7 @@
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="1:10" ht="14.25">
+    <row r="30" spans="1:10" ht="13.8">
       <c r="A30" s="11" t="s">
         <v>65</v>
       </c>
@@ -2049,15 +2262,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10" ht="17.399999999999999">
+      <c r="A1" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="10"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -2065,13 +2278,13 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:10" ht="15.6">
+      <c r="A2" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="10"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -2079,7 +2292,7 @@
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" ht="14.25">
+    <row r="3" spans="1:10" ht="13.8">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -2093,7 +2306,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10" ht="13.8">
       <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
@@ -2111,7 +2324,7 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row r="5" spans="1:10" ht="13.8">
       <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
@@ -2127,7 +2340,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10" ht="13.8">
       <c r="A6" s="11" t="s">
         <v>93</v>
       </c>
@@ -2143,7 +2356,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" ht="14.25">
+    <row r="7" spans="1:10" ht="13.8">
       <c r="A7" s="11" t="s">
         <v>95</v>
       </c>
@@ -2161,7 +2374,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10" ht="13.8">
       <c r="A8" s="11" t="s">
         <v>98</v>
       </c>
@@ -2181,7 +2394,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="15">
+    <row r="9" spans="1:10" ht="13.8">
       <c r="A9" s="11" t="s">
         <v>98</v>
       </c>
@@ -2195,7 +2408,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="14.25">
+    <row r="10" spans="1:10" ht="13.8">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2207,7 +2420,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="14.25">
+    <row r="11" spans="1:10" ht="13.8">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -2219,13 +2432,13 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:10" ht="15.6">
+      <c r="A12" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="10"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -2233,7 +2446,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25">
+    <row r="13" spans="1:10" ht="13.8">
       <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
@@ -2253,7 +2466,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25">
+    <row r="14" spans="1:10" ht="13.8">
       <c r="A14" s="11" t="s">
         <v>46</v>
       </c>
@@ -2273,7 +2486,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="14.25">
+    <row r="15" spans="1:10" ht="13.8">
       <c r="A15" s="11" t="s">
         <v>48</v>
       </c>
@@ -2293,7 +2506,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" ht="13.8">
       <c r="A16" s="11" t="s">
         <v>49</v>
       </c>
@@ -2313,7 +2526,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="14.25">
+    <row r="17" spans="1:8" ht="13.8">
       <c r="A17" s="11" t="s">
         <v>51</v>
       </c>
@@ -2331,7 +2544,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="14.25">
+    <row r="18" spans="1:8" ht="13.8">
       <c r="A18" s="11" t="s">
         <v>53</v>
       </c>
@@ -2347,7 +2560,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" ht="14.25">
+    <row r="19" spans="1:8" ht="13.8">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
         <v>55</v>
@@ -2361,7 +2574,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="14.25">
+    <row r="20" spans="1:8" ht="13.8">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
@@ -2373,19 +2586,19 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:8" ht="15.6">
+      <c r="A21" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="14.25">
+    <row r="22" spans="1:8" ht="13.8">
       <c r="A22" s="11" t="s">
         <v>44</v>
       </c>
@@ -2403,7 +2616,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" ht="13.8">
       <c r="A23" s="11" t="s">
         <v>57</v>
       </c>
@@ -2421,7 +2634,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="14.25">
+    <row r="24" spans="1:8" ht="13.8">
       <c r="A24" s="11" t="s">
         <v>59</v>
       </c>
@@ -2439,7 +2652,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="42.75">
+    <row r="25" spans="1:8" ht="41.4">
       <c r="A25" s="17" t="s">
         <v>61</v>
       </c>
@@ -2455,7 +2668,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="14.25">
+    <row r="26" spans="1:8" ht="13.8">
       <c r="A26" s="17" t="s">
         <v>63</v>
       </c>
@@ -2471,7 +2684,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="14.25">
+    <row r="27" spans="1:8" ht="13.8">
       <c r="A27" s="11"/>
       <c r="B27" s="15" t="s">
         <v>84</v>
@@ -2487,7 +2700,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" ht="14.25">
+    <row r="28" spans="1:8" ht="13.8">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
         <v>87</v>
@@ -2503,7 +2716,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" ht="14.25">
+    <row r="29" spans="1:8" ht="13.8">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2515,7 +2728,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" ht="14.25">
+    <row r="30" spans="1:8" ht="13.8">
       <c r="A30" s="11" t="s">
         <v>91</v>
       </c>
@@ -2552,155 +2765,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F93CDC9-EFC7-42DE-9C7E-5F818883B7AB}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:4" ht="19.2">
+      <c r="A1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-    </row>
-    <row r="2" spans="1:4" ht="20.25">
-      <c r="A2" s="42" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:4" ht="21">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5">
-      <c r="A3" s="32" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.8">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="1:4" ht="89.25">
-      <c r="A4" s="36" t="s">
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" ht="92.4">
+      <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="37" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="29" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="114.75">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:4" ht="118.8">
+      <c r="A6" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="293.25">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:4" ht="303.60000000000002">
+      <c r="A7" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="37" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="29" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.5">
-      <c r="A9" s="43" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.8">
+      <c r="A9" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-    </row>
-    <row r="10" spans="1:4" ht="409.5">
-      <c r="A10" s="40" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+    </row>
+    <row r="10" spans="1:4" ht="409.2">
+      <c r="A10" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="37" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:4" ht="16.8">
+      <c r="A11" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="39" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="31" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="39" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="31" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="31"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="31"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="31"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2714,6 +2919,357 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AD1A09-8A8F-4721-9437-AED65CF057DA}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
+      <c r="A3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.8">
+      <c r="A4" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="44"/>
+    </row>
+    <row r="5" spans="1:4" ht="13.8">
+      <c r="A5" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+    </row>
+    <row r="6" spans="1:4" ht="13.8">
+      <c r="A6" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.8">
+      <c r="A7" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+    </row>
+    <row r="8" spans="1:4" ht="13.8">
+      <c r="A8" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.8">
+      <c r="A9" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6">
+      <c r="A10" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.8">
+      <c r="A11" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.8">
+      <c r="A12" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
+      <c r="A13" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.8">
+      <c r="A14" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.8">
+      <c r="A15" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6">
+      <c r="A16" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.8">
+      <c r="A17" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.8">
+      <c r="A18" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.8">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6">
+      <c r="A20" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" ht="13.8">
+      <c r="A21" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="46"/>
+    </row>
+    <row r="22" spans="1:4" ht="13.8">
+      <c r="A22" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="46"/>
+    </row>
+    <row r="23" spans="1:4" ht="13.8">
+      <c r="A23" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="46"/>
+    </row>
+    <row r="24" spans="1:4" ht="13.8">
+      <c r="A24" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="46"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.6">
+      <c r="A25" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+    </row>
+    <row r="26" spans="1:4" ht="13.8">
+      <c r="A26" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.8">
+      <c r="A27" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="13.8">
+      <c r="A28" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.8">
+      <c r="A29" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="46"/>
+    </row>
+    <row r="30" spans="1:4" ht="13.8">
+      <c r="A30" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="46"/>
+    </row>
+    <row r="31" spans="1:4" ht="13.8">
+      <c r="A31" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="46"/>
+    </row>
+    <row r="32" spans="1:4" ht="13.8">
+      <c r="A32" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8923A73A-8514-4A7D-89AE-03BBD6408AF4}">
   <dimension ref="A1:K42"/>
   <sheetViews>
@@ -2721,15 +3277,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" ht="17.399999999999999">
+      <c r="A1" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -2738,13 +3294,13 @@
       <c r="J1" s="10"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:11" ht="15.6">
+      <c r="A2" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -2753,7 +3309,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="14.25">
+    <row r="3" spans="1:11" ht="13.8">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -2768,7 +3324,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:11" ht="13.8">
       <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
@@ -2787,7 +3343,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11" ht="13.8">
       <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
@@ -2804,7 +3360,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:11" ht="13.8">
       <c r="A6" s="11" t="s">
         <v>104</v>
       </c>
@@ -2825,7 +3381,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11" ht="13.8">
       <c r="A7" s="11" t="s">
         <v>107</v>
       </c>
@@ -2846,7 +3402,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:11" ht="13.8">
       <c r="A8" s="11" t="s">
         <v>110</v>
       </c>
@@ -2867,7 +3423,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:11" ht="13.8">
       <c r="A9" s="11" t="s">
         <v>114</v>
       </c>
@@ -2884,7 +3440,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:11" ht="13.8">
       <c r="A10" s="11" t="s">
         <v>115</v>
       </c>
@@ -2903,7 +3459,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="15">
+    <row r="11" spans="1:11" ht="13.8">
       <c r="A11" s="11" t="s">
         <v>118</v>
       </c>
@@ -2918,13 +3474,13 @@
       <c r="J11" s="10"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:11" ht="15.6">
+      <c r="A12" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -2933,7 +3489,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="14.25">
+    <row r="13" spans="1:11" ht="13.8">
       <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
@@ -2952,7 +3508,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="14.25">
+    <row r="14" spans="1:11" ht="13.8">
       <c r="A14" s="11" t="s">
         <v>46</v>
       </c>
@@ -2971,7 +3527,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="14.25">
+    <row r="15" spans="1:11" ht="13.8">
       <c r="A15" s="11" t="s">
         <v>48</v>
       </c>
@@ -2990,7 +3546,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" ht="15">
+    <row r="16" spans="1:11" ht="13.8">
       <c r="A16" s="11" t="s">
         <v>49</v>
       </c>
@@ -3009,7 +3565,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="14.25">
+    <row r="17" spans="1:11" ht="13.8">
       <c r="A17" s="11" t="s">
         <v>51</v>
       </c>
@@ -3028,7 +3584,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="14.25">
+    <row r="18" spans="1:11" ht="13.8">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>54</v>
@@ -3043,7 +3599,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" ht="14.25">
+    <row r="19" spans="1:11" ht="13.8">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
         <v>55</v>
@@ -3058,7 +3614,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" ht="14.25">
+    <row r="20" spans="1:11" ht="13.8">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -3071,13 +3627,13 @@
       <c r="J20" s="10"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:11" ht="15.6">
+      <c r="A21" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -3086,7 +3642,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" ht="14.25">
+    <row r="22" spans="1:11" ht="13.8">
       <c r="A22" s="11" t="s">
         <v>44</v>
       </c>
@@ -3105,7 +3661,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="15">
+    <row r="23" spans="1:11" ht="13.8">
       <c r="A23" s="11" t="s">
         <v>120</v>
       </c>
@@ -3124,7 +3680,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="14.25">
+    <row r="24" spans="1:11" ht="13.8">
       <c r="A24" s="11" t="s">
         <v>59</v>
       </c>
@@ -3143,7 +3699,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" ht="14.25">
+    <row r="25" spans="1:11" ht="13.8">
       <c r="A25" s="11" t="s">
         <v>53</v>
       </c>
@@ -3160,7 +3716,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" ht="14.25">
+    <row r="26" spans="1:11" ht="13.8">
       <c r="A26" s="11"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -3173,7 +3729,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" ht="14.25">
+    <row r="27" spans="1:11" ht="13.8">
       <c r="A27" s="11"/>
       <c r="B27" s="15" t="s">
         <v>84</v>
@@ -3188,7 +3744,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" ht="14.25">
+    <row r="28" spans="1:11" ht="13.8">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
         <v>87</v>
@@ -3203,7 +3759,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" ht="14.25">
+    <row r="29" spans="1:11" ht="13.8">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3216,7 +3772,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" ht="14.25">
+    <row r="30" spans="1:11" ht="13.8">
       <c r="A30" s="11" t="s">
         <v>121</v>
       </c>
@@ -3398,7 +3954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96460505-D879-42E7-8CB0-31E9EF811282}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -3406,29 +3962,29 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="65" customWidth="1"/>
-    <col min="2" max="2" width="62.140625" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
     <col min="3" max="3" width="131" customWidth="1"/>
-    <col min="4" max="4" width="81.85546875" customWidth="1"/>
+    <col min="4" max="4" width="81.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:4" ht="15.6">
+      <c r="A1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1" t="s">
@@ -3486,13 +4042,13 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:4" ht="15.6">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
@@ -3514,13 +4070,13 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="1" t="s">
@@ -3530,7 +4086,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="90">
+    <row r="13" spans="1:4" ht="93.6">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -3542,15 +4098,15 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:4" ht="15.6">
+      <c r="A14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" ht="63.75">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:4" ht="66">
       <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
